--- a/scripts/meta/JIRA-810-blsp_triggers/clean_tables_columns.xlsx
+++ b/scripts/meta/JIRA-810-blsp_triggers/clean_tables_columns.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\meta\JIRA-810-take out wight char\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE79CAA-4A90-4B85-8FBF-80D2679C037C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B59D98-9D95-43F0-8A24-6A63D99CC0D5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tables" sheetId="1" r:id="rId1"/>
@@ -812,8 +812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D135"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1968,8 +1968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B537ECF4-9DC8-4071-9BC5-1088713F2C5D}">
   <dimension ref="A1:N81"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A82" sqref="A82:XFD82"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="M81" sqref="M81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
